--- a/C61/Sprint0/Planification.xlsx
+++ b/C61/Sprint0/Planification.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\Neon_Nightbeat\C61\Sprint0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Neon_Nightbeat\C61\Sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF54A3DC-319C-4FAD-9319-8B8DB2032805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5B326D-107E-4A27-98C3-705E47FE7C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{019A0CC1-9F2E-4C51-94B6-2290F200B8D7}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{019A0CC1-9F2E-4C51-94B6-2290F200B8D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planification globale" sheetId="1" r:id="rId1"/>
+    <sheet name="Sommaire" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +36,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+  <si>
+    <t>Planification globale</t>
+  </si>
+  <si>
+    <t>Interface du jeu</t>
+  </si>
+  <si>
+    <t>Interface du site web</t>
+  </si>
+  <si>
+    <t>Créer la base de données</t>
+  </si>
+  <si>
+    <t>Numéro de tâche</t>
+  </si>
+  <si>
+    <t>Tâche(s) préalable(s)</t>
+  </si>
+  <si>
+    <t>Cote de priorité</t>
+  </si>
+  <si>
+    <t>Cote de difficulté</t>
+  </si>
+  <si>
+    <t>Estimation du temps</t>
+  </si>
+  <si>
+    <t>Sprint de réalisation</t>
+  </si>
+  <si>
+    <t>Création des classes et fonctions principales</t>
+  </si>
+  <si>
+    <t>Placer les notes pour une musique</t>
+  </si>
+  <si>
+    <t>Tester la synchronisation (musique et notes)</t>
+  </si>
+  <si>
+    <t>Programmer le menu de choix de musique</t>
+  </si>
+  <si>
+    <t>Programmer le défilement des notes</t>
+  </si>
+  <si>
+    <t>Programmation des statistiques du jeu</t>
+  </si>
+  <si>
+    <t>Programmer les paramètres du jeu</t>
+  </si>
+  <si>
+    <t>Programmation des states du jeu</t>
+  </si>
+  <si>
+    <t>Programmer la connexion et l'inscription</t>
+  </si>
+  <si>
+    <t>Stocker les statistiques dans la bd</t>
+  </si>
+  <si>
+    <t>Programmer la page de statistiques globale</t>
+  </si>
+  <si>
+    <t>Aucune</t>
+  </si>
+  <si>
+    <t>Stocker les informations d'inscription des joueurs</t>
+  </si>
+  <si>
+    <t>Programmer la page d'accueil du site web</t>
+  </si>
+  <si>
+    <t>Essentiel</t>
+  </si>
+  <si>
+    <t>Souhaité</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Facile</t>
+  </si>
+  <si>
+    <t>Difficile</t>
+  </si>
+  <si>
+    <t>Incertain</t>
+  </si>
+  <si>
+    <t>Programmer l'appui de notes</t>
+  </si>
+  <si>
+    <t>11, 14</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Nombre de tâches</t>
+  </si>
+  <si>
+    <t>Temps total</t>
+  </si>
+  <si>
+    <t>Difficulté moyenne</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,15 +169,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +209,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +571,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754C3AC5-8197-4C2E-BC7A-2E408FF938C1}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7">
+        <v>480</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7">
+        <v>300</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7">
+        <v>240</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7">
+        <v>60</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7">
+        <v>60</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7">
+        <v>240</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7">
+        <v>420</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7">
+        <v>600</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7">
+        <v>210</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7">
+        <v>360</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7">
+        <v>120</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7">
+        <v>180</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="7">
+        <v>240</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7">
+        <v>60</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7">
+        <v>360</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="7">
+        <v>360</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="7">
+        <v>300</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACEB8EF-8C8A-496B-8B67-D1D67B8AFF98}">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1650</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1640</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>